--- a/biology/Histoire de la zoologie et de la botanique/Gordon_E._Gates/Gordon_E._Gates.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gordon_E._Gates/Gordon_E._Gates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gordon Enoch Gates (11 janvier 1897 - 11 juin 1987), biologiste américain, fut un des plus grands spécialistes des vers de terre.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,8 +553,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1925-1929
-1. 1925. Note on a new species of Drawida from Rangoon, Burma. Ann. Mag, Nat. Hist. London (9), 16: 660-664.
+          <t>1925-1929</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1. 1925. Note on a new species of Drawida from Rangoon, Burma. Ann. Mag, Nat. Hist. London (9), 16: 660-664.
 2. 1925. Note on an abnormal specimen of Pheretima posthuma (L. Vaill.). Rec. Indian Mus., Calcutta 27: 237-240.
 3. 1925. Note on luminescence in the earthworms of Rangoon. Rec. Indian Mus., Calcutta 27: 471-473.
 4. 1925. Notes on Rosa's Rangoon earthworms, Pheretima peguana and Eutyphoeus foveatus. Ann. Mag. Nat. Hist. London (9), 16: 561-577.
@@ -558,9 +577,43 @@
 16. 1927. Regeneration in a tropical earthworm Perionyx excavatus (E. Perr.). Biol. Bull. Woods Hole 53: 351-364.
 17. 1929. A summary of the earthworm fauna of Burma with descriptions of fourteen new species. Proc. U.S. Natl. Mus. 75(10): 1-41.
 18. 1929. Earthworms of North America. Proc. Washington Acad. Sci. 19: 339-347.
-19. 1929. The earthworm fauna of the United States. Science 70(1811): 266-267.
-1930-1934
-20. 1930. Mitochondrial behavior. Science 72: 629-630.
+19. 1929. The earthworm fauna of the United States. Science 70(1811): 266-267.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Gordon Enoch Gates</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1930-1934</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>20. 1930. Mitochondrial behavior. Science 72: 629-630.
 21. 1930. On a new species of the moniligastrid genus Desmogaster from China. Ann. Mag. Nat. Hist. London (10), 6: 589-593.
 22. 1930. The earthworms of Burma. I. Rec. Indian Mus., Calcutta 32: 257-356.
 23. 1931. The earthworms of Burma. II. Rec. Indian Mus., Calcutta 33: 327-442.
@@ -568,9 +621,43 @@
 25. 1932. The earthworms of China. Lingnan Sci. J. Canton 11: 509-514.
 26. 1933. On a new gregarine from the coelom of a Burmese earthworm, Pheretima compta. Biol. Bull. Woods Hole 65: 508-511.
 27. 1933. The earthworms of Burma. IV. Rec. Indian Mus. Calcutta 35: 413-606.
-28. 1934. Notes on some earthworms from the Indian Museum. Rec. Indian Mus., Calcutta 36: 233-277.
-1935-1939
-29. 1935. New earthworms from China, with notes on the synonymy of some Chinese species of Drawida and Pheretima. Smithsonian Misc. Coll. 93(3): 1-19.
+28. 1934. Notes on some earthworms from the Indian Museum. Rec. Indian Mus., Calcutta 36: 233-277.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Gordon Enoch Gates</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1935-1939</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>29. 1935. New earthworms from China, with notes on the synonymy of some Chinese species of Drawida and Pheretima. Smithsonian Misc. Coll. 93(3): 1-19.
 30. 1935. On some Chinese earthworms. Lingnan Sci. J. Canton 14: 445-457.
 31. 1935. On some earthworms from East Perak and Christmas Island. Bull. Raffles Mus., Singapore 10: 80-95.
 32. 1935. The earthworms of New England. Proc. New England Zool. Club, Cambridge 15: 41-44.
@@ -593,9 +680,43 @@
 49. 1939. Indian earthworms. VII. Contribution to a revision of the genus Eudichogaster. Rec. Indian Mus., Calcutta 41: 151-218.
 50. 1939. On a collection of lumbricids from South India. Vest. Ceske. Spol. Zool., Praha 6-7: 151-154.
 51. 1939. On some species of Chinese earthworms with special reference to specimens collected in Szechuan by Dr. D.C. Graham. Proc. U.S. Natl. Mus. 85: 405-507.
-52. 1939. Thai earthworms. J. Thailand Res. Soc., Bangkok Nat. Hist. Suppl. 12: 65-114.
-1940-1944
-53. 1940. Indian earthworms. VIII. Priodochaeta gen. nov. IX.Priodoscolex gen. nov. X. Contribution to a revision of the Indian section of the genus Megascolides. XI. Travoscolides gen. nov. Rec. Indian Mus., Calcutta 42: 115-143.
+52. 1939. Thai earthworms. J. Thailand Res. Soc., Bangkok Nat. Hist. Suppl. 12: 65-114.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Gordon Enoch Gates</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1940-1944</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>53. 1940. Indian earthworms. VIII. Priodochaeta gen. nov. IX.Priodoscolex gen. nov. X. Contribution to a revision of the Indian section of the genus Megascolides. XI. Travoscolides gen. nov. Rec. Indian Mus., Calcutta 42: 115-143.
 54. 1940. Indian earthworms. XII. The genus Hoplochaetella. Rec. Indian Mus., Calcutta 42: 199-252.
 55. 1940. Indian earthworms. XIII. The genus Moniligaster. Rec. Indian Mus., Calcutta 42: 487-518.
 56. 1940. On some earthworms from the Buitenzorg Museum. II. Treubia, Buitenzorg 17: 409-420.
@@ -608,9 +729,43 @@
 63. 1943. On some American and Oriental earthworms. Ohio J. Sci. 43: 87-116.
 64. 1943. Some further notes on regeneration in Perionyx excavatus (E. Perrier). Proc. Natl. Acad. Sci. India, Allahabad 13: 168-179.
 65. 1944. Note on luminescence in some Allahabad earthworms. Current Sci. 13: 131-132.
-66. 1944. Regenerative capacity in Perionyx sansibaricus (Michaelsen, 1891). Current Sci. 13: 16.
-1945-1949
-67. 1945. Another species of Pheretima from India. Sci. &amp; Culture 10: 403.
+66. 1944. Regenerative capacity in Perionyx sansibaricus (Michaelsen, 1891). Current Sci. 13: 16.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Gordon Enoch Gates</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1945-1949</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>67. 1945. Another species of Pheretima from India. Sci. &amp; Culture 10: 403.
 68. 1945. On some earthworms from Ceylon. II. Spolia Zellanica, Colombo 24: 70-90.
 69. 1945. On some Indian earthworms. II. J. Roy. Asiatic Soc. Bengal, Calcutta (Sci.) 11: 54-91.
 70. 1945. On some Indian earthworms. Proc. Indian Acad. Sci., Bangalore (B), 21: 208-258.
@@ -625,9 +780,43 @@
 79. 1949. A six-segment head regenerate in a supposedly refractory earthworm species, Lumbricus castaneus (Savigny, 1826). Science 110: 567.
 80. 1949. Miscellanea Megadrilogica. I-IV. American Nat. 83: 139-152.
 81. 1949. On some earthworms from Perlis and Kedah. Bull. Raffles Mus., Singapore 19: 5-38. 1949. Regeneration in an earthworm, Eisenia foetida (Savigny, 1826). I. Anterior regeneration. Biol. Bull Woods Hole 96: 129-139.
-82. 1949. On some Indian ocnerodrilids. Proc. Indian Acad. Sci., Bangalore (B), 30: 279-283.
-1950-1954
-83. 1950. Regeneration in an earthworm, Eisenia foetida (Savigny, 1826). II. Posterior regeneration. Biol. Bull. Woods Hole 93: 36-45.
+82. 1949. On some Indian ocnerodrilids. Proc. Indian Acad. Sci., Bangalore (B), 30: 279-283.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Gordon Enoch Gates</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1950-1954</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>83. 1950. Regeneration in an earthworm, Eisenia foetida (Savigny, 1826). II. Posterior regeneration. Biol. Bull. Woods Hole 93: 36-45.
 84. 1950. Regeneration in an earthworm, Eisenia foetida (Savigny, 1826). III. Regeneration from simultaneous anterior and posterior transactions. Biol. Bull. Woods Hole 93: 99.
 85. 1951. An abnormal earthworm. Amer. Midl. Nat. 45: 471-473.
 86. 1951. On the earthworms of Saharanpur, Dehra Dun, and some Himalayan hill stations. Proc. Natl. Acad. Sci. India, Allahabad (B), 21: 16-22.
@@ -641,9 +830,43 @@
 94. 1954. Anterior regeneration in a sexthecal species of lumbricid earthworm. Breviora, Mus. Comp. Zool., Harvard, No. 27: 1-5.
 95. 1954. Exotic earthworms in the United States. Bull. Mus. Comp. Zool., Harvard 111: 219-258.
 96. 1954. On some earthworms from northeast Burma. Ark. Zool., Stockholm 6(20: 433-439.
-97. 1954 or 1955. On the evolution of an oriental earthworm species Pheretima anomala (Michaelsen, 1907). Breviora, Mus. Comp. Zool., Harvard, No. 37: 1-8.
-1955-1959
-98. 1955. Notes on American earthworms of the family Lumbricidae. I-II. Breviora, Mus. Comp. Zool., Harvard, No. 48: 1-12.
+97. 1954 or 1955. On the evolution of an oriental earthworm species Pheretima anomala (Michaelsen, 1907). Breviora, Mus. Comp. Zool., Harvard, No. 37: 1-8.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Gordon Enoch Gates</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1955-1959</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>98. 1955. Notes on American earthworms of the family Lumbricidae. I-II. Breviora, Mus. Comp. Zool., Harvard, No. 48: 1-12.
 99. 1955. Notes on several species of the earthworm genus Diplocardia Garman, 1888. Bull. Mus. Comp. Zool., Harvard 113: 229-259.
 100. 1955. The earthworms of Burma. VI. Rec. Indian Mus., Calcutta 52: 55-93.
 101. 1956. Earthworms pf the region south of the Allahabad sector of the Gangetic Plain. Proc. Natl. Acad. Sci. India, Allahabad (B), 26: 145-152.
@@ -668,9 +891,43 @@
 120. 1959. On Indian and Burmese earthworms of the genus Glyphidrilus. Rec. Indian Mus., Calcutta 53: 53-66.
 121. 1959. On natural regeneration in an oriental megascolecid earthworm, Lampito mauritii Kinberg, 1867. Wasmann J. Biol., San Francisco 17: 55-64.
 122. 1959. On some earthworms from Taiwan. American Mus. Novitiates, No. 1941: 1-19.
-123. 1959. The earthworms of Burma. VII. The genus Eutyphoeus, with notes on several Indian species. Rec. Indian Mus., Calcutta 53(1&amp;2): 93-222.
-1960-1964
-124. 1960. Earthworms of North American caves. Natl. Speleol. Soc. Bull. 21: 77-84.
+123. 1959. The earthworms of Burma. VII. The genus Eutyphoeus, with notes on several Indian species. Rec. Indian Mus., Calcutta 53(1&amp;2): 93-222.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Gordon Enoch Gates</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1960-1964</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>124. 1960. Earthworms of North American caves. Natl. Speleol. Soc. Bull. 21: 77-84.
 125. 1960. On another biclitellate earthworm. Amer. Midl. Nat. 63: 418-423.
 126. 1960. On Burmese earthworms of the family Megascolecidae. Bull. Mus. Comp. Zool., Harvard 123: 203-282.
 127. 1961. Earthworms of Burma. Burma Res. Soc. 50th Anniversary Publ. No. 1: 51-58.
@@ -692,9 +949,43 @@
 143. 1962. On some earthworms of Eisen's collections. Proc. California Acad. Sci. (4), 31: 185-225.
 144. 1962. Preservation of earthworms. [Privately printed.]
 145. 1963. Earthworms. Encyclopedia Britannica 7th edition, pp. 859–861.
-146. 1963. Miscellanea Megadrilogica. VII. Greenhouse earthworms. Proc. Biol. Soc. Washington 76: 9-18.
-1965-1969
-147. 1965. Louisiana earthworms. I. A preliminary survey. Proc. Louisiana Acad. Sci. 28: 12-20.
+146. 1963. Miscellanea Megadrilogica. VII. Greenhouse earthworms. Proc. Biol. Soc. Washington 76: 9-18.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Gordon Enoch Gates</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1965-1969</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>147. 1965. Louisiana earthworms. I. A preliminary survey. Proc. Louisiana Acad. Sci. 28: 12-20.
 148. 1965. Louisiana earthworms. II. Variation in two species. Proc. Louisiana Acad. Sci. 28: 20-27.
 149. 1965. On an Australian species of the earthworm genus Megascolex Templeton, 1844. Australian Zool. 13: 213-215.
 150. 1965. On peregrine species of the moniligastrid earthworm genus Drawida Michaelsen, 1900. Ann. Mag. Nat. Hist. London (13), 8: 85-93.
@@ -718,9 +1009,43 @@
 168. 1969. Contributions to a revision of the earthworm family Lumbricidae. V. Eisenia zebra Michaelsen, 1902. Proc. Biol. Soc. Washington 82: 453-460.
 169. 1969. On a nw species of the moniligastrid earthworm genus Drawida Michaelsen, 1900. Zoologiceskij zurnal 48(5): 674-676.
 170. 1969. On the earthworms of Ascension and Juan Fernandez Islands. Breviora, Mus. Comp. Zool., Harvard, No. 323: 1-4.
-171. 1969. On two American genera of the earthworm family Lumbricidae. J. Nat. Hist. 9: 305-307.
-1970-1974
-172. 1970. Miscellanea Megadrilogica. VIII. Megadrilogica 1(2): 1-14. [reprinted 1992, 1(2): 1-6]
+171. 1969. On two American genera of the earthworm family Lumbricidae. J. Nat. Hist. 9: 305-307.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Gordon Enoch Gates</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1970-1974</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>172. 1970. Miscellanea Megadrilogica. VIII. Megadrilogica 1(2): 1-14. [reprinted 1992, 1(2): 1-6]
 173. 1970. On a new species in a new earthworm genus from Puerto Rico. Breviora, Mus. Comp. Zool., Harvard, No. 356: 1-11.
 174. 1970. On a new species of earthworm from another Mexican cave. Southwestern Nat. 15(2): 267-269.
 175. 1970. On an interesting Philippine species of the earthworm genus Pheretima Kinberg, 1866 (Oligochaeta, Annelida). Proc. Biol. Soc. Washington 83(13): 155-160.
@@ -741,9 +1066,43 @@
 190. 1974. Contributions to a revision of the Lumbricidae. XI. Eisenia rosea (Savigny, 1826). Bull. Tall Timbers Res. Stn., No. 16: 9-30.
 191. 1974. On a new species of earthworm in a southern portion of the United States. Bull. Tall Timbers Res. Stn., No. 15: 1-13.
 192. 1974. On oligochaete gonads. Megadrilogica 1(9): 1-4.
-193. 1974. Present names of some New Zealand earthworms. Megadrilogica 1(12): 2-3.
-1975-1979
-194. 1975. Contributions to a revision of the Lumbricidae. XII. Enterion mammale Savigny, 1826. Megadrilogica 2(1): 1-5.
+193. 1974. Present names of some New Zealand earthworms. Megadrilogica 1(12): 2-3.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Gordon Enoch Gates</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1975-1979</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>194. 1975. Contributions to a revision of the Lumbricidae. XII. Enterion mammale Savigny, 1826. Megadrilogica 2(1): 1-5.
 195. 1975. Contributions to a revision of the Lumbricidae. XIII. Eisenia japonica (Michaelsen, 1891). Megadrilogica 2(4): 1-3.
 196. 1975. Contributions to a revision of the Lumbricidae. XIV. What is Enterion terrestris Savigny, 1826 and what are its relationships? Megadrilogica 2(4): 10-12.
 197. 1975. Contributions to a revision of the Lumbricidae. XV. On some other species of Eisenia. Megadrilogica 2(5): 1-7.
@@ -768,9 +1127,43 @@
 216. 1979. A new genus of larger ocnerodrilid earthworms in the American Hemisphere. Megadrilogica 3(9): 162-164.
 217. 1979. Contributions to a revision of the Lumbricidae. XXIII. The genus Dendrodrilus Omodeo, 1956 in North America. Megadrilogica 3(9): 151-162.
 218. 1979. Contributions to a revision of the Lumbricidae. XXIV. What is Dendrodrilus byblica Rosa, 1893? Megadrilogica 3(10): 175-176.
-219. 1979. South Dakota does have earthworms! Megadrilogica 3(9): 165-166.
-1980-1982
-220. 1980. Contributions to a revision of the Lumbricidae. XXV. The genus Allolobophora Eisen, 1874 in North America. Megadrilogica 3(11): 177-184.
+219. 1979. South Dakota does have earthworms! Megadrilogica 3(9): 165-166.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gordon_E._Gates</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Gordon Enoch Gates</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1980-1982</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>220. 1980. Contributions to a revision of the Lumbricidae. XXV. The genus Allolobophora Eisen, 1874 in North America. Megadrilogica 3(11): 177-184.
 221. 1980. Contributions to a revision of the Lumbricidae. XXVI. On two octolasia. Megadrilogica 3(12): 205-211.
 222. 1982. Farewell to North American megadriles. Megadrilogica 4(1-2): 12-77.</t>
         </is>
